--- a/SIRS MODELS/galicia/23_03_2020.xlsx
+++ b/SIRS MODELS/galicia/23_03_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599CBB4C-E1EA-4BDE-A422-2E909FEC30FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90C837-0783-4A1C-A056-F53CB28CF9AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1267,6 +1267,21 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1319,21 +1334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8075,8 +8075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8091,37 +8091,37 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="140" t="s">
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="142"/>
-      <c r="P2" s="140" t="s">
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+      <c r="P2" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="142"/>
-      <c r="W2" s="143" t="s">
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="147"/>
+      <c r="W2" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="145"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="107" t="s">
@@ -8163,13 +8163,13 @@
       <c r="N3" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="146" t="s">
+      <c r="P3" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="153"/>
       <c r="U3" s="86">
         <f>2699499</f>
         <v>2699499</v>
@@ -8232,13 +8232,13 @@
       <c r="N4" s="112">
         <v>0</v>
       </c>
-      <c r="P4" s="149" t="s">
+      <c r="P4" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="151"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="156"/>
       <c r="U4" s="87">
         <f>1084.3*1000</f>
         <v>1084300</v>
@@ -8307,13 +8307,13 @@
         <f t="shared" ref="N5:N24" si="6">K5-K4</f>
         <v>0</v>
       </c>
-      <c r="P5" s="146" t="s">
+      <c r="P5" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="148"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="153"/>
       <c r="U5" s="124">
         <f>U3/U4</f>
         <v>2.4896237203725908</v>
@@ -8366,13 +8366,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P6" s="146" t="s">
+      <c r="P6" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="148"/>
+      <c r="Q6" s="152"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="153"/>
       <c r="U6" s="124">
         <v>7</v>
       </c>
@@ -8424,13 +8424,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P7" s="146" t="s">
+      <c r="P7" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="148"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="152"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="153"/>
       <c r="U7" s="125">
         <f>2.68</f>
         <v>2.68</v>
@@ -8484,13 +8484,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P8" s="146" t="s">
+      <c r="P8" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="148"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="153"/>
       <c r="U8" s="125">
         <f>U5</f>
         <v>2.4896237203725908</v>
@@ -8544,13 +8544,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P9" s="152" t="s">
+      <c r="P9" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="154"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="158"/>
+      <c r="S9" s="158"/>
+      <c r="T9" s="159"/>
       <c r="U9" s="126">
         <f>(U8^U8)/(U7^U6)</f>
         <v>9.7561918191139494E-3</v>
@@ -8653,14 +8653,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P11" s="140" t="s">
+      <c r="P11" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="141"/>
-      <c r="T11" s="141"/>
-      <c r="U11" s="142"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="146"/>
+      <c r="S11" s="146"/>
+      <c r="T11" s="146"/>
+      <c r="U11" s="147"/>
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
@@ -9980,22 +9980,22 @@
         <f t="shared" ref="S28:S91" si="32">INT(((-Q28+SQRT((Q28^2)-(4*P28*R28)))/(2*P28)))</f>
         <v>1774</v>
       </c>
-      <c r="T28" s="155">
+      <c r="T28" s="137">
         <v>1598</v>
       </c>
-      <c r="U28" s="156">
+      <c r="U28" s="138">
         <f t="shared" ref="U28" si="33">S28-T28</f>
         <v>176</v>
       </c>
-      <c r="V28" s="157">
+      <c r="V28" s="139">
         <f t="shared" ref="V28" si="34">U28/T28</f>
         <v>0.11013767209011265</v>
       </c>
-      <c r="W28" s="156">
+      <c r="W28" s="138">
         <f t="shared" ref="W28" si="35">W27+U28</f>
         <v>205</v>
       </c>
-      <c r="X28" s="158">
+      <c r="X28" s="140">
         <f>V28+X27</f>
         <v>0.17483726763266877</v>
       </c>
@@ -10067,7 +10067,7 @@
         <f t="shared" si="32"/>
         <v>2205</v>
       </c>
-      <c r="T29" s="159">
+      <c r="T29" s="141">
         <v>1832</v>
       </c>
       <c r="U29" s="16">
